--- a/app/excel/xlrd2csv_test/1.xlsx
+++ b/app/excel/xlrd2csv_test/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>Antimicrobial potential of metabolites extracted from bacterial symbionts associated with marine sponges in coastal area of Gulf of Mannar Biosphere, India.</t>
   </si>
@@ -214,12 +214,6 @@
     <t>319-23</t>
   </si>
   <si>
-    <t>pmid</t>
-  </si>
-  <si>
-    <t>articletitle</t>
-  </si>
-  <si>
     <t>authorlist</t>
   </si>
   <si>
@@ -229,12 +223,6 @@
     <t>keywords</t>
   </si>
   <si>
-    <t>pmcid</t>
-  </si>
-  <si>
-    <t>doi</t>
-  </si>
-  <si>
     <t>pubmedpubdate</t>
   </si>
   <si>
@@ -251,6 +239,22 @@
   </si>
   <si>
     <t>medlinepgn</t>
+  </si>
+  <si>
+    <t>PMID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artEWERetitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmcDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -596,53 +600,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="7" max="7" width="35.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -975,44 +982,6 @@
         <v>3</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1">
-      <c r="A11" s="1">
-        <v>24135549</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="1">
-        <v>199</v>
-      </c>
-      <c r="L11" s="1">
-        <v>3</v>
-      </c>
-      <c r="M11" s="1" t="s">
         <v>65</v>
       </c>
     </row>
